--- a/results/DL4.3-comparison.xlsx
+++ b/results/DL4.3-comparison.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santi\Documents\GitHub\FORGENIUS-pipeline\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santi\Documents\GitHub\FORGENIUS-pipeline\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD1C6D6-DD11-47E6-90C7-C478E100DF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD43773B-63B1-4D96-8A12-6D46460F5DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,12 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="4QGIS" sheetId="2" r:id="rId2"/>
     <sheet name="comparison Aalba" sheetId="7" r:id="rId3"/>
-    <sheet name="comparison Msylvestris" sheetId="8" r:id="rId4"/>
+    <sheet name="comparison Phalepensis" sheetId="9" r:id="rId4"/>
+    <sheet name="comparison Msylvestris" sheetId="8" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'comparison Aalba'!$A$1:$E$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="223">
   <si>
     <t>Latitude</t>
   </si>
@@ -519,66 +523,9 @@
     <t>PI</t>
   </si>
   <si>
-    <t>1-Qinter</t>
-  </si>
-  <si>
     <t>Fis</t>
   </si>
   <si>
-    <t>9-ATAA51-0</t>
-  </si>
-  <si>
-    <t>99-ITAA57-</t>
-  </si>
-  <si>
-    <t>125-SIAA62</t>
-  </si>
-  <si>
-    <t>150-SIAA63</t>
-  </si>
-  <si>
-    <t>381-ITAA64</t>
-  </si>
-  <si>
-    <t>200-ROAA58</t>
-  </si>
-  <si>
-    <t>382-ROAA59</t>
-  </si>
-  <si>
-    <t>250-ROAA60</t>
-  </si>
-  <si>
-    <t>275-ROAA61</t>
-  </si>
-  <si>
-    <t>50-ATAA52-</t>
-  </si>
-  <si>
-    <t>300-DEAA55</t>
-  </si>
-  <si>
-    <t>325-FRAA54</t>
-  </si>
-  <si>
-    <t>350-ITAA65</t>
-  </si>
-  <si>
-    <t>403-FRAA03</t>
-  </si>
-  <si>
-    <t>422-FRAA05</t>
-  </si>
-  <si>
-    <t>441-ESAA01</t>
-  </si>
-  <si>
-    <t>466-ITAA66</t>
-  </si>
-  <si>
-    <t>75-ITAA56-</t>
-  </si>
-  <si>
     <t>AUT00179</t>
   </si>
   <si>
@@ -633,21 +580,12 @@
     <t>ITA00029</t>
   </si>
   <si>
-    <t>From DL</t>
-  </si>
-  <si>
-    <t>Abies alba random SPET</t>
-  </si>
-  <si>
     <t>Pop</t>
   </si>
   <si>
     <t>Pixy Pi</t>
   </si>
   <si>
-    <t>VCFTools</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -657,24 +595,6 @@
     <t>Hs</t>
   </si>
   <si>
-    <t>genepop(target)</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>all SNPs from pipeline</t>
-  </si>
-  <si>
-    <t>target SNPs from pipeline</t>
-  </si>
-  <si>
-    <t>Random SNPs GENEPOP</t>
-  </si>
-  <si>
-    <t>random SNPs from pipeline</t>
-  </si>
-  <si>
     <t>Pixy</t>
   </si>
   <si>
@@ -723,13 +643,73 @@
     <t>DNK00076</t>
   </si>
   <si>
-    <t>Fst-pop</t>
-  </si>
-  <si>
     <t>ave_pairwise_fst</t>
   </si>
   <si>
     <t>pop_specific_fst</t>
+  </si>
+  <si>
+    <t>nb_loci</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>ESP00057</t>
+  </si>
+  <si>
+    <t>ESP00091</t>
+  </si>
+  <si>
+    <t>ESP00094</t>
+  </si>
+  <si>
+    <t>ESP00106</t>
+  </si>
+  <si>
+    <t>ESP00166</t>
+  </si>
+  <si>
+    <t>ESP00377</t>
+  </si>
+  <si>
+    <t>ITA00025</t>
+  </si>
+  <si>
+    <t>ITA00027</t>
+  </si>
+  <si>
+    <t>ITA00046</t>
+  </si>
+  <si>
+    <t>ITA00075</t>
+  </si>
+  <si>
+    <t>ITA00076</t>
+  </si>
+  <si>
+    <t>ITA00133</t>
+  </si>
+  <si>
+    <t>ITA00165</t>
+  </si>
+  <si>
+    <t>ITA00261</t>
+  </si>
+  <si>
+    <t>ITA00270</t>
+  </si>
+  <si>
+    <t>Q5</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1225,7 @@
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1274,6 +1254,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3710,8 +3691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:O19"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4769,1984 +4750,2202 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D89F443-A158-4639-B1CE-0FE764B9C268}">
-  <dimension ref="A1:AR20"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AT6" sqref="AT6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="4.26953125" customWidth="1"/>
-    <col min="10" max="10" width="4.81640625" customWidth="1"/>
-    <col min="14" max="14" width="3.7265625" customWidth="1"/>
-    <col min="16" max="16" width="3.81640625" customWidth="1"/>
-    <col min="20" max="20" width="3.08984375" customWidth="1"/>
-    <col min="22" max="22" width="3.1796875" customWidth="1"/>
-    <col min="26" max="26" width="4.26953125" customWidth="1"/>
+    <col min="3" max="3" width="4.26953125" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" customWidth="1"/>
+    <col min="9" max="9" width="3.7265625" customWidth="1"/>
+    <col min="11" max="11" width="2.90625" customWidth="1"/>
+    <col min="12" max="12" width="5.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AL1" s="11">
-        <f>PEARSON(AN3:AN20,AR3:AR20)</f>
-        <v>0.99671542262993873</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="V1" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.2651</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-3.0999999999999999E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.439E-3</v>
+      </c>
+      <c r="G2" t="s">
         <v>161</v>
       </c>
-      <c r="K2" t="s">
-        <v>200</v>
-      </c>
-      <c r="L2" t="s">
-        <v>201</v>
-      </c>
-      <c r="M2" t="s">
-        <v>202</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="S2" s="11" t="s">
+      <c r="H2">
+        <v>2.8488369999999999E-3</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="U2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA2">
-        <f>PEARSON(R3:R20,AE3:AE20)</f>
-        <v>0.99409897778266798</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK2" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3">
-        <v>0.2651</v>
-      </c>
-      <c r="C3">
-        <v>-3.0999999999999999E-3</v>
-      </c>
-      <c r="D3">
-        <v>1.439E-3</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>180</v>
+      <c r="K2" s="11">
+        <v>25</v>
+      </c>
+      <c r="L2" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0.92343897081895199</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0.25230442422340799</v>
+      </c>
+      <c r="O2" s="11">
+        <v>-8.7411400306083298E-3</v>
+      </c>
+      <c r="P2" s="11">
+        <v>8.6826296905995998E-2</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>3.13579603240648E-2</v>
+      </c>
+      <c r="R2" s="11">
+        <v>7.2293943372E-2</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0.70813223999999997</v>
+      </c>
+      <c r="T2" s="11">
+        <v>0.13493698000000001</v>
+      </c>
+      <c r="U2" s="11">
+        <v>2.4601423276000001E-2</v>
+      </c>
+      <c r="V2" s="11">
+        <v>6.003555814E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.2417</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-1.9699999999999999E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.366E-3</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H3">
-        <v>7.9899999999999999E-2</v>
-      </c>
-      <c r="I3">
-        <v>2.4E-2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L3">
-        <v>2.8488369999999999E-3</v>
-      </c>
-      <c r="M3">
-        <v>1.439E-3</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>180</v>
+        <v>2.8123409999999999E-3</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="11">
+        <v>24</v>
+      </c>
+      <c r="L3" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0.90524003765296501</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0.230192814559147</v>
+      </c>
+      <c r="O3" s="11">
+        <v>-2.0278902899235202E-2</v>
       </c>
       <c r="P3" s="11">
-        <v>25</v>
+        <v>0.108599610152382</v>
       </c>
       <c r="Q3" s="11">
-        <v>0.93398484848484897</v>
+        <v>6.6850012320864197E-2</v>
       </c>
       <c r="R3" s="11">
-        <v>8.0704633532462003E-2</v>
+        <v>3.7612094833333297E-2</v>
       </c>
       <c r="S3" s="11">
-        <v>6.5404949886722604E-3</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>180</v>
+        <v>0.91802633333333294</v>
+      </c>
+      <c r="T3" s="11">
+        <v>1.5057687041666701E-3</v>
+      </c>
+      <c r="U3" s="11">
+        <v>9.5716303083333305E-3</v>
       </c>
       <c r="V3" s="11">
-        <v>25</v>
-      </c>
-      <c r="W3" s="11">
-        <v>0.92343897081895199</v>
-      </c>
-      <c r="X3" s="11">
-        <v>0.25230442422340799</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>-8.7411400306083298E-3</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC3" s="11">
-        <v>25</v>
-      </c>
-      <c r="AD3" s="11">
-        <v>0.93392205294104802</v>
-      </c>
-      <c r="AE3" s="11">
-        <v>7.7514063217762205E-2</v>
-      </c>
-      <c r="AF3" s="11">
-        <v>1.47475699520342E-2</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK3" s="11">
-        <v>8.6826296905995998E-2</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN3">
-        <v>2.8400000000000002E-2</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ3">
-        <v>8.6826296905995998E-2</v>
-      </c>
-      <c r="AR3">
-        <v>2.9071440338338299E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4">
-        <v>0.2417</v>
-      </c>
-      <c r="C4">
-        <v>-1.9699999999999999E-2</v>
-      </c>
-      <c r="D4">
-        <v>1.366E-3</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>189</v>
+        <v>3.3284209024999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.25269999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-1.44E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.39E-3</v>
       </c>
       <c r="G4" t="s">
         <v>171</v>
       </c>
       <c r="H4">
-        <v>7.5700000000000003E-2</v>
-      </c>
-      <c r="I4">
-        <v>1.37E-2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4">
-        <v>2.8123409999999999E-3</v>
-      </c>
-      <c r="M4">
-        <v>1.366E-3</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>189</v>
+        <v>2.4460179999999999E-3</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="11">
+        <v>25</v>
+      </c>
+      <c r="L4" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.90963288358958305</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0.24396548478192701</v>
+      </c>
+      <c r="O4" s="11">
+        <v>-4.2587181261398301E-2</v>
       </c>
       <c r="P4" s="11">
+        <v>9.3083106586852093E-2</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>3.8196387904380902E-2</v>
+      </c>
+      <c r="R4" s="11">
+        <v>5.3731475347999998E-2</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0.83645232000000003</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3.7282822675999999E-2</v>
+      </c>
+      <c r="U4" s="11">
+        <v>2.9110855631999999E-2</v>
+      </c>
+      <c r="V4" s="11">
+        <v>4.3422585219999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-9.6600000000000005E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.16819999999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8.61E-4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5">
+        <v>1.8369370000000001E-3</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="11">
+        <v>19</v>
+      </c>
+      <c r="L5" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0.89896454345779697</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.216679622047244</v>
+      </c>
+      <c r="O5" s="11">
+        <v>-0.26621854740722101</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0.16945732356660601</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0.208023034746949</v>
+      </c>
+      <c r="R5" s="11">
+        <v>4.3955931736842098E-2</v>
+      </c>
+      <c r="S5" s="11">
+        <v>5.57572441473684E-2</v>
+      </c>
+      <c r="T5" s="11">
+        <v>0.319123320584211</v>
+      </c>
+      <c r="U5" s="11">
+        <v>0.51697647368421096</v>
+      </c>
+      <c r="V5" s="11">
+        <v>6.4186919715789506E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.25340000000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-3.8199999999999998E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.011E-3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6">
+        <v>2.2370839999999999E-3</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="11">
+        <v>19</v>
+      </c>
+      <c r="L6" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0.88390335738939396</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0.23955964857232501</v>
+      </c>
+      <c r="O6" s="11">
+        <v>-0.16113866489162901</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0.111478024621084</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>7.7149578904580907E-2</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0.126536170384211</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0.32475810999999999</v>
+      </c>
+      <c r="T6" s="11">
+        <v>0.41379368421052598</v>
+      </c>
+      <c r="U6" s="11">
+        <v>6.2892325752631595E-2</v>
+      </c>
+      <c r="V6" s="11">
+        <v>7.2019581799999996E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.2271</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7.76E-4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7">
+        <v>1.8169340000000001E-3</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="11">
+        <v>20</v>
+      </c>
+      <c r="L7" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0.88421713209915298</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.187773446327684</v>
+      </c>
+      <c r="O7" s="11">
+        <v>-1.5143096604709E-2</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0.19316681492573501</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0.243472862112422</v>
+      </c>
+      <c r="R7" s="11">
+        <v>1.0125511815E-2</v>
+      </c>
+      <c r="S7" s="11">
+        <v>2.4718967525E-2</v>
+      </c>
+      <c r="T7" s="12">
+        <v>9.9974830000000006E-5</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0.94144090000000002</v>
+      </c>
+      <c r="V7" s="11">
+        <v>2.3614484309999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.26490000000000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-8.0199999999999994E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.1099</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6.69E-4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8">
+        <v>2.032669E-3</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="11">
+        <v>17</v>
+      </c>
+      <c r="L8" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0.88484468151867002</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0.25308706842435702</v>
+      </c>
+      <c r="O8" s="11">
+        <v>-0.14920162494380701</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0.14162185376195699</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0.120942968311662</v>
+      </c>
+      <c r="R8" s="11">
+        <v>9.8547863064705907E-2</v>
+      </c>
+      <c r="S8" s="11">
+        <v>2.9774959176470599E-2</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0.63925517647058805</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0.16989970665294099</v>
+      </c>
+      <c r="V8" s="11">
+        <v>6.2522145194117695E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.1938</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-1.9099999999999999E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.591E-3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9">
+        <v>3.1365970000000001E-3</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="11">
+        <v>25</v>
+      </c>
+      <c r="L9" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0.91873235017257604</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0.18202573760200899</v>
+      </c>
+      <c r="O9" s="11">
+        <v>-3.2874085671817897E-2</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0.12974136851258</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0.202439422630526</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0.91556472</v>
+      </c>
+      <c r="S9" s="11">
+        <v>9.5490395200000001E-3</v>
+      </c>
+      <c r="T9" s="11">
+        <v>9.4425571240000002E-3</v>
+      </c>
+      <c r="U9" s="11">
+        <v>1.209542608E-3</v>
+      </c>
+      <c r="V9" s="11">
+        <v>6.4234208252000005E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.18090000000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.389E-3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10">
+        <v>2.4092380000000002E-3</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="11">
         <v>24</v>
       </c>
-      <c r="Q4" s="11">
-        <v>0.93740909090909097</v>
-      </c>
-      <c r="R4" s="11">
-        <v>7.6027743842364506E-2</v>
-      </c>
-      <c r="S4" s="11">
-        <v>-4.2727593888898198E-3</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V4" s="11">
+      <c r="L10" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0.93253843740194498</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0.17216410175879401</v>
+      </c>
+      <c r="O10" s="11">
+        <v>-1.67082410421626E-3</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0.15694433163039601</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0.277116682930586</v>
+      </c>
+      <c r="R10" s="11">
+        <v>0.95153187500000003</v>
+      </c>
+      <c r="S10" s="11">
+        <v>4.1515250708333302E-3</v>
+      </c>
+      <c r="T10" s="11">
+        <v>1.3809133124999999E-3</v>
+      </c>
+      <c r="U10" s="11">
+        <v>1.59234759083333E-2</v>
+      </c>
+      <c r="V10" s="11">
+        <v>2.7012246274999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.67E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5.6700000000000001E-4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11">
+        <v>2.3975300000000001E-3</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" s="11">
+        <v>23</v>
+      </c>
+      <c r="L11" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0.89676812048948895</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0.23326645748352701</v>
+      </c>
+      <c r="O11" s="11">
+        <v>-8.0843915728949795E-3</v>
+      </c>
+      <c r="P11" s="11">
+        <v>9.4399461426120101E-2</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>4.59618047027405E-2</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0.170131</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0.55736178260869595</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0.11879392608695701</v>
+      </c>
+      <c r="U11" s="11">
+        <v>9.6874256130434794E-2</v>
+      </c>
+      <c r="V11" s="11">
+        <v>5.68392023913043E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.24060000000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12">
+        <v>2.9261019999999999E-3</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="11">
+        <v>25</v>
+      </c>
+      <c r="L12" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0.91841857546281802</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0.244721845574388</v>
+      </c>
+      <c r="O12" s="11">
+        <v>-1.9011762010534599E-4</v>
+      </c>
+      <c r="P12" s="11">
+        <v>9.1870135598743505E-2</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>4.3973273816363297E-2</v>
+      </c>
+      <c r="R12" s="11">
+        <v>0.13766703196399999</v>
+      </c>
+      <c r="S12" s="11">
+        <v>0.52487064000000005</v>
+      </c>
+      <c r="T12" s="11">
+        <v>0.14002574800000001</v>
+      </c>
+      <c r="U12" s="11">
+        <v>0.14347112000000001</v>
+      </c>
+      <c r="V12" s="11">
+        <v>5.3965398704000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.1883</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.529E-3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13">
+        <v>3.249909E-3</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13" s="11">
+        <v>25</v>
+      </c>
+      <c r="L13" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0.91747725133354296</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0.178085091023227</v>
+      </c>
+      <c r="O13" s="11">
+        <v>-1.5729165913936499E-2</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0.140437106919446</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0.228735398503701</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0.94679740000000001</v>
+      </c>
+      <c r="S13" s="11">
+        <v>1.27968912E-2</v>
+      </c>
+      <c r="T13" s="11">
+        <v>4.5213519319999996E-3</v>
+      </c>
+      <c r="U13" s="11">
+        <v>4.7784642480000004E-3</v>
+      </c>
+      <c r="V13" s="11">
+        <v>3.1105917255999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.18260000000000001</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-1.47E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.1981</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.5280000000000001E-3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14">
+        <v>2.7787889999999998E-3</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="11">
+        <v>25</v>
+      </c>
+      <c r="L14" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0.88923752745528695</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0.172484463276836</v>
+      </c>
+      <c r="O14" s="11">
+        <v>-4.4168206071136598E-2</v>
+      </c>
+      <c r="P14" s="11">
+        <v>0.138751844484899</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0.22174734125225001</v>
+      </c>
+      <c r="R14" s="11">
+        <v>3.2034816248000003E-2</v>
+      </c>
+      <c r="S14" s="11">
+        <v>3.9521001240000004E-3</v>
+      </c>
+      <c r="T14" s="11">
+        <v>4.5475340800000001E-4</v>
+      </c>
+      <c r="U14" s="11">
+        <v>3.2705205279999999E-3</v>
+      </c>
+      <c r="V14" s="11">
+        <v>0.96028771999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.15670000000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8.83E-4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15">
+        <v>3.0571140000000001E-3</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="11">
         <v>24</v>
       </c>
-      <c r="W4" s="11">
-        <v>0.90524003765296501</v>
-      </c>
-      <c r="X4" s="11">
-        <v>0.230192814559147</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>-2.0278902899235202E-2</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC4" s="11">
-        <v>24</v>
-      </c>
-      <c r="AD4" s="11">
-        <v>0.937331963540187</v>
-      </c>
-      <c r="AE4" s="11">
-        <v>7.3120200297384794E-2</v>
-      </c>
-      <c r="AF4" s="11">
-        <v>8.5004956083757407E-3</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK4" s="11">
-        <v>0.108599610152382</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN4">
-        <v>6.4600000000000005E-2</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ4">
-        <v>0.108599610152382</v>
-      </c>
-      <c r="AR4">
-        <v>6.3446161610610605E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5">
-        <v>0.25269999999999998</v>
-      </c>
-      <c r="C5">
-        <v>-1.44E-2</v>
-      </c>
-      <c r="D5">
-        <v>1.39E-3</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5">
-        <v>7.8600000000000003E-2</v>
-      </c>
-      <c r="I5">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>190</v>
-      </c>
-      <c r="L5">
-        <v>2.4460179999999999E-3</v>
-      </c>
-      <c r="M5">
-        <v>1.39E-3</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="P5" s="11">
+      <c r="L15" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0.87574521493567603</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0.18435014119861901</v>
+      </c>
+      <c r="O15" s="11">
+        <v>-4.1749790944673997E-3</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0.1221153919829</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>0.16499946399279899</v>
+      </c>
+      <c r="R15" s="11">
+        <v>2.62421033666667E-2</v>
+      </c>
+      <c r="S15" s="11">
+        <v>1.6793282795833302E-2</v>
+      </c>
+      <c r="T15" s="11">
+        <v>3.0471014791666699E-3</v>
+      </c>
+      <c r="U15" s="11">
+        <v>9.2082058708333296E-3</v>
+      </c>
+      <c r="V15" s="11">
+        <v>0.94470924999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.18970000000000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-1.49E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.1739</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.5330000000000001E-3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16">
+        <v>2.7981799999999999E-3</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="11">
         <v>25</v>
       </c>
-      <c r="Q5" s="11">
-        <v>0.92810606060606105</v>
-      </c>
-      <c r="R5" s="11">
-        <v>7.91552571315913E-2</v>
-      </c>
-      <c r="S5" s="11">
-        <v>-1.27349292253032E-2</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="V5" s="11">
-        <v>25</v>
-      </c>
-      <c r="W5" s="11">
-        <v>0.90963288358958305</v>
-      </c>
-      <c r="X5" s="11">
-        <v>0.24396548478192701</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>-4.2587181261398301E-2</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC5" s="11">
-        <v>25</v>
-      </c>
-      <c r="AD5" s="11">
-        <v>0.92723338215042905</v>
-      </c>
-      <c r="AE5" s="11">
-        <v>7.6454252712635604E-2</v>
-      </c>
-      <c r="AF5" s="11">
-        <v>-3.0445889578669702E-3</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AK5" s="11">
-        <v>9.3083106586852093E-2</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ5">
-        <v>9.3083106586852093E-2</v>
-      </c>
-      <c r="AR5">
-        <v>3.5409693376376401E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6">
-        <v>0.22850000000000001</v>
-      </c>
-      <c r="C6">
-        <v>-9.6600000000000005E-2</v>
-      </c>
-      <c r="D6">
-        <v>8.61E-4</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6">
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="I6">
-        <v>-3.49E-2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>195</v>
-      </c>
-      <c r="L6">
-        <v>1.8369370000000001E-3</v>
-      </c>
-      <c r="M6">
-        <v>8.61E-4</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="P6" s="11">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>0.94089393939393895</v>
-      </c>
-      <c r="R6" s="11">
-        <v>6.6056194573876403E-2</v>
-      </c>
-      <c r="S6" s="11">
-        <v>-0.202144090867316</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="V6" s="11">
-        <v>19</v>
-      </c>
-      <c r="W6" s="11">
-        <v>0.89896454345779697</v>
-      </c>
-      <c r="X6" s="11">
-        <v>0.216679622047244</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>-0.26621854740722101</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC6" s="11">
-        <v>19</v>
-      </c>
-      <c r="AD6" s="11">
-        <v>0.94089488294826096</v>
-      </c>
-      <c r="AE6" s="11">
-        <v>6.2116221228319002E-2</v>
-      </c>
-      <c r="AF6" s="11">
-        <v>-0.19562841854629001</v>
-      </c>
-      <c r="AJ6" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK6" s="11">
-        <v>0.16945732356660601</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN6">
-        <v>0.16819999999999999</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AQ6">
-        <v>0.16945732356660601</v>
-      </c>
-      <c r="AR6">
-        <v>0.20553232043042999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7">
-        <v>0.25340000000000001</v>
-      </c>
-      <c r="C7">
-        <v>-3.8199999999999998E-2</v>
-      </c>
-      <c r="D7">
-        <v>1.011E-3</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="G7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7">
-        <v>8.1900000000000001E-2</v>
-      </c>
-      <c r="I7">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="K7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L7">
-        <v>2.2370839999999999E-3</v>
-      </c>
-      <c r="M7">
-        <v>1.011E-3</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="P7" s="11">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>0.91883333333333295</v>
-      </c>
-      <c r="R7" s="11">
-        <v>8.1195275754756296E-2</v>
-      </c>
-      <c r="S7" s="11">
-        <v>-0.11006124876493401</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="V7" s="11">
-        <v>19</v>
-      </c>
-      <c r="W7" s="11">
-        <v>0.88390335738939396</v>
-      </c>
-      <c r="X7" s="11">
-        <v>0.23955964857232501</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>-0.16113866489162901</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC7" s="11">
-        <v>19</v>
-      </c>
-      <c r="AD7" s="11">
-        <v>0.91997639292662103</v>
-      </c>
-      <c r="AE7" s="11">
-        <v>7.8312472465045094E-2</v>
-      </c>
-      <c r="AF7" s="11">
-        <v>-9.5662693358755199E-2</v>
-      </c>
-      <c r="AJ7" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK7" s="11">
-        <v>0.111478024621084</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN7">
-        <v>6.7400000000000002E-2</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AQ7">
-        <v>0.111478024621084</v>
-      </c>
-      <c r="AR7">
-        <v>7.5415216166166199E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8">
-        <v>0.19689999999999999</v>
-      </c>
-      <c r="C8">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="D8">
-        <v>7.76E-4</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="I8">
-        <v>8.3500000000000005E-2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8">
-        <v>1.8169340000000001E-3</v>
-      </c>
-      <c r="M8">
-        <v>7.76E-4</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="P8" s="11">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>0.93959090909090903</v>
-      </c>
-      <c r="R8" s="11">
-        <v>6.2733312189784493E-2</v>
-      </c>
-      <c r="S8" s="11">
-        <v>1.4781067017464599E-2</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="V8" s="11">
-        <v>20</v>
-      </c>
-      <c r="W8" s="11">
-        <v>0.88421713209915298</v>
-      </c>
-      <c r="X8" s="11">
-        <v>0.187773446327684</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>-1.5143096604709E-2</v>
-      </c>
-      <c r="AB8" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC8" s="11">
-        <v>20</v>
-      </c>
-      <c r="AD8" s="11">
-        <v>0.94061072373166599</v>
-      </c>
-      <c r="AE8" s="11">
-        <v>6.0530999267265101E-2</v>
-      </c>
-      <c r="AF8" s="11">
-        <v>2.2875814952889199E-2</v>
-      </c>
-      <c r="AJ8" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="AK8" s="11">
-        <v>0.19316681492573501</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN8">
-        <v>0.2271</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>191</v>
-      </c>
-      <c r="AQ8">
-        <v>0.19316681492573501</v>
-      </c>
-      <c r="AR8">
-        <v>0.242135989219219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9">
-        <v>0.26490000000000002</v>
-      </c>
-      <c r="C9">
-        <v>-8.0199999999999994E-2</v>
-      </c>
-      <c r="D9">
-        <v>6.69E-4</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9">
-        <v>7.5800000000000006E-2</v>
-      </c>
-      <c r="I9">
-        <v>-2.81E-2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>193</v>
-      </c>
-      <c r="L9">
-        <v>2.032669E-3</v>
-      </c>
-      <c r="M9">
-        <v>6.69E-4</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="P9" s="11">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>0.93457575757575795</v>
-      </c>
-      <c r="R9" s="11">
-        <v>7.5379818674013693E-2</v>
-      </c>
-      <c r="S9" s="11">
-        <v>-0.121597085535711</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="V9" s="11">
-        <v>17</v>
-      </c>
-      <c r="W9" s="11">
-        <v>0.88484468151867002</v>
-      </c>
-      <c r="X9" s="11">
-        <v>0.25308706842435702</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>-0.14920162494380701</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC9" s="11">
-        <v>17</v>
-      </c>
-      <c r="AD9" s="11">
-        <v>0.93435922096657897</v>
-      </c>
-      <c r="AE9" s="11">
-        <v>7.1240031447995206E-2</v>
-      </c>
-      <c r="AF9" s="11">
-        <v>-0.11576588688582</v>
-      </c>
-      <c r="AJ9" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="AK9" s="11">
-        <v>0.14162185376195699</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN9">
-        <v>0.1099</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AQ9">
-        <v>0.14162185376195699</v>
-      </c>
-      <c r="AR9">
-        <v>0.118645056896897</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10">
-        <v>0.1938</v>
-      </c>
-      <c r="C10">
-        <v>-1.9099999999999999E-2</v>
-      </c>
-      <c r="D10">
-        <v>1.591E-3</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10">
-        <v>9.01E-2</v>
-      </c>
-      <c r="I10">
-        <v>3.6499999999999998E-2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L10">
-        <v>3.1365970000000001E-3</v>
-      </c>
-      <c r="M10">
-        <v>1.591E-3</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="P10" s="11">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>0.84416666666666695</v>
-      </c>
-      <c r="R10" s="11">
-        <v>8.9579417472784098E-2</v>
-      </c>
-      <c r="S10" s="11">
-        <v>7.7009820648333803E-3</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="V10" s="11">
-        <v>25</v>
-      </c>
-      <c r="W10" s="11">
-        <v>0.91873235017257604</v>
-      </c>
-      <c r="X10" s="11">
-        <v>0.18202573760200899</v>
-      </c>
-      <c r="Y10" s="11">
-        <v>-3.2874085671817897E-2</v>
-      </c>
-      <c r="AB10" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC10" s="11">
-        <v>25</v>
-      </c>
-      <c r="AD10" s="11">
-        <v>0.84205119237578996</v>
-      </c>
-      <c r="AE10" s="11">
-        <v>8.9142389045650403E-2</v>
-      </c>
-      <c r="AF10" s="11">
-        <v>1.9275158698896701E-2</v>
-      </c>
-      <c r="AJ10" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK10" s="11">
-        <v>0.12974136851258</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN10">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ10">
-        <v>0.12974136851258</v>
-      </c>
-      <c r="AR10">
-        <v>0.19867368990991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11">
-        <v>0.18090000000000001</v>
-      </c>
-      <c r="C11">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="D11">
-        <v>1.389E-3</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11">
-        <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="I11">
-        <v>5.9299999999999999E-2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>192</v>
-      </c>
-      <c r="L11">
-        <v>2.4092380000000002E-3</v>
-      </c>
-      <c r="M11">
-        <v>1.389E-3</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="P11" s="11">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>0.92445454545454497</v>
-      </c>
-      <c r="R11" s="11">
-        <v>8.2470696768104299E-2</v>
-      </c>
-      <c r="S11" s="11">
-        <v>1.29199346221228E-2</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="V11" s="11">
-        <v>24</v>
-      </c>
-      <c r="W11" s="11">
-        <v>0.93253843740194498</v>
-      </c>
-      <c r="X11" s="11">
-        <v>0.17216410175879401</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>-1.67082410421626E-3</v>
-      </c>
-      <c r="AB11" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>24</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>0.92465409079979899</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>8.1961323613367901E-2</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>1.9170516374429299E-2</v>
-      </c>
-      <c r="AJ11" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>0.15694433163039601</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN11">
-        <v>0.25679999999999997</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AQ11">
-        <v>0.15694433163039601</v>
-      </c>
-      <c r="AR11">
-        <v>0.27506599705705698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12">
-        <v>0.24360000000000001</v>
-      </c>
-      <c r="C12">
-        <v>5.67E-2</v>
-      </c>
-      <c r="D12">
-        <v>5.6700000000000001E-4</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12">
-        <v>7.9799999999999996E-2</v>
-      </c>
-      <c r="I12">
-        <v>0.1057</v>
-      </c>
-      <c r="K12" t="s">
-        <v>196</v>
-      </c>
-      <c r="L12">
-        <v>2.3975300000000001E-3</v>
-      </c>
-      <c r="M12">
-        <v>5.6700000000000001E-4</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="P12" s="11">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>0.91753030303030303</v>
-      </c>
-      <c r="R12" s="11">
-        <v>8.0635743252479505E-2</v>
-      </c>
-      <c r="S12" s="11">
-        <v>5.9090386810868303E-3</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="V12" s="11">
-        <v>23</v>
-      </c>
-      <c r="W12" s="11">
-        <v>0.89676812048948895</v>
-      </c>
-      <c r="X12" s="11">
-        <v>0.23326645748352701</v>
-      </c>
-      <c r="Y12" s="11">
-        <v>-8.0843915728949795E-3</v>
-      </c>
-      <c r="AB12" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC12" s="11">
-        <v>23</v>
-      </c>
-      <c r="AD12" s="11">
-        <v>0.91663205753131205</v>
-      </c>
-      <c r="AE12" s="11">
-        <v>7.80755795608922E-2</v>
-      </c>
-      <c r="AF12" s="11">
-        <v>1.49405898622486E-2</v>
-      </c>
-      <c r="AJ12" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK12" s="11">
-        <v>9.4399461426120101E-2</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN12">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ12">
-        <v>9.4399461426120101E-2</v>
-      </c>
-      <c r="AR12">
-        <v>4.4067750057057098E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13">
-        <v>0.24060000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="D13">
-        <v>6.7500000000000004E-4</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13">
-        <v>7.6100000000000001E-2</v>
-      </c>
-      <c r="I13">
-        <v>0.28149999999999997</v>
-      </c>
-      <c r="K13" t="s">
-        <v>184</v>
-      </c>
-      <c r="L13">
-        <v>2.9261019999999999E-3</v>
-      </c>
-      <c r="M13">
-        <v>6.7500000000000004E-4</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="P13" s="11">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>0.93374242424242404</v>
-      </c>
-      <c r="R13" s="11">
-        <v>8.1841076581913197E-2</v>
-      </c>
-      <c r="S13" s="11">
-        <v>5.56059568404865E-3</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="V13" s="11">
-        <v>25</v>
-      </c>
-      <c r="W13" s="11">
-        <v>0.91841857546281802</v>
-      </c>
-      <c r="X13" s="11">
-        <v>0.244721845574388</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>-1.9011762010534599E-4</v>
-      </c>
-      <c r="AB13" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>25</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>0.93285099127849802</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>7.8783245281364406E-2</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>1.30932294325976E-2</v>
-      </c>
-      <c r="AJ13" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>9.1870135598743505E-2</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN13">
-        <v>4.9500000000000002E-2</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>184</v>
-      </c>
-      <c r="AQ13">
-        <v>9.1870135598743505E-2</v>
-      </c>
-      <c r="AR13">
-        <v>4.3196095066066101E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14">
-        <v>0.1883</v>
-      </c>
-      <c r="C14">
-        <v>3.3999999999999998E-3</v>
-      </c>
-      <c r="D14">
-        <v>1.529E-3</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" t="s">
-        <v>163</v>
-      </c>
-      <c r="H14">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="I14">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>181</v>
-      </c>
-      <c r="L14">
-        <v>3.249909E-3</v>
-      </c>
-      <c r="M14">
-        <v>1.529E-3</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="P14" s="11">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>0.86607575757575805</v>
-      </c>
-      <c r="R14" s="11">
-        <v>8.9030960611298102E-2</v>
-      </c>
-      <c r="S14" s="11">
-        <v>8.4484225082570596E-4</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="V14" s="11">
-        <v>25</v>
-      </c>
-      <c r="W14" s="11">
-        <v>0.91747725133354296</v>
-      </c>
-      <c r="X14" s="11">
-        <v>0.178085091023227</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>-1.5729165913936499E-2</v>
-      </c>
-      <c r="AB14" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC14" s="11">
-        <v>25</v>
-      </c>
-      <c r="AD14" s="11">
-        <v>0.86524295613018898</v>
-      </c>
-      <c r="AE14" s="11">
-        <v>8.8366543450206697E-2</v>
-      </c>
-      <c r="AF14" s="11">
-        <v>1.0839584774318799E-2</v>
-      </c>
-      <c r="AJ14" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK14" s="11">
-        <v>0.140437106919446</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN14">
-        <v>0.21029999999999999</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ14">
-        <v>0.140437106919446</v>
-      </c>
-      <c r="AR14">
-        <v>0.22580201906906899</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15">
-        <v>0.18260000000000001</v>
-      </c>
-      <c r="C15">
-        <v>-1.47E-2</v>
-      </c>
-      <c r="D15">
-        <v>1.5280000000000001E-3</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H15">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="I15">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>186</v>
-      </c>
-      <c r="L15">
-        <v>2.7787889999999998E-3</v>
-      </c>
-      <c r="M15">
-        <v>1.5280000000000001E-3</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="P15" s="11">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>0.88078787878787901</v>
-      </c>
-      <c r="R15" s="11">
-        <v>8.6508640589689503E-2</v>
-      </c>
-      <c r="S15" s="11">
-        <v>7.5464668381108901E-4</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="V15" s="11">
-        <v>25</v>
-      </c>
-      <c r="W15" s="11">
-        <v>0.88923752745528695</v>
-      </c>
-      <c r="X15" s="11">
-        <v>0.172484463276836</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>-4.4168206071136598E-2</v>
-      </c>
-      <c r="AB15" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>25</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>0.88065312903014303</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>8.5606467705233696E-2</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>1.4958998828643001E-2</v>
-      </c>
-      <c r="AJ15" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK15" s="11">
-        <v>0.138751844484899</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN15">
-        <v>0.1981</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>186</v>
-      </c>
-      <c r="AQ15">
-        <v>0.138751844484899</v>
-      </c>
-      <c r="AR15">
-        <v>0.21709457181181199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16">
-        <v>0.19059999999999999</v>
-      </c>
-      <c r="C16">
-        <v>0.15670000000000001</v>
-      </c>
-      <c r="D16">
-        <v>8.83E-4</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16">
-        <v>8.4400000000000003E-2</v>
-      </c>
-      <c r="I16">
-        <v>0.18279999999999999</v>
-      </c>
-      <c r="K16" t="s">
-        <v>185</v>
-      </c>
-      <c r="L16">
-        <v>3.0571140000000001E-3</v>
-      </c>
-      <c r="M16">
-        <v>8.83E-4</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>185</v>
+      <c r="L16" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0.884530906808911</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0.17977216818324401</v>
+      </c>
+      <c r="O16" s="11">
+        <v>-3.5450162750013697E-2</v>
       </c>
       <c r="P16" s="11">
-        <v>24</v>
+        <v>0.12994577012588901</v>
       </c>
       <c r="Q16" s="11">
-        <v>0.88412121212121197</v>
+        <v>0.192182234166833</v>
       </c>
       <c r="R16" s="11">
-        <v>8.6729675825591407E-2</v>
+        <v>2.1638291971999998E-2</v>
       </c>
       <c r="S16" s="11">
-        <v>1.87022846192859E-2</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>185</v>
+        <v>1.4338357764E-2</v>
+      </c>
+      <c r="T16" s="11">
+        <v>7.2528437599999999E-4</v>
+      </c>
+      <c r="U16" s="11">
+        <v>3.1849165399999999E-3</v>
       </c>
       <c r="V16" s="11">
-        <v>24</v>
-      </c>
-      <c r="W16" s="11">
-        <v>0.87574521493567603</v>
-      </c>
-      <c r="X16" s="11">
-        <v>0.18435014119861901</v>
-      </c>
-      <c r="Y16" s="11">
-        <v>-4.1749790944673997E-3</v>
-      </c>
-      <c r="AB16" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC16" s="11">
-        <v>24</v>
-      </c>
-      <c r="AD16" s="11">
-        <v>0.88292640276290202</v>
-      </c>
-      <c r="AE16" s="11">
-        <v>8.5713707314940296E-2</v>
-      </c>
-      <c r="AF16" s="11">
-        <v>2.80243035587701E-2</v>
-      </c>
-      <c r="AJ16" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK16" s="11">
-        <v>0.1221153919829</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN16">
-        <v>0.15709999999999999</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ16">
-        <v>0.1221153919829</v>
-      </c>
-      <c r="AR16">
-        <v>0.16115170556556599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17">
-        <v>0.18970000000000001</v>
-      </c>
-      <c r="C17">
-        <v>-1.49E-2</v>
-      </c>
-      <c r="D17">
-        <v>1.5330000000000001E-3</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>187</v>
+        <v>0.96011303999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.20330000000000001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7.9299999999999998E-4</v>
       </c>
       <c r="G17" t="s">
         <v>169</v>
       </c>
       <c r="H17">
-        <v>8.72E-2</v>
-      </c>
-      <c r="I17">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="K17" t="s">
-        <v>187</v>
-      </c>
-      <c r="L17">
-        <v>2.7981799999999999E-3</v>
-      </c>
-      <c r="M17">
-        <v>1.5330000000000001E-3</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>187</v>
+        <v>2.0999730000000002E-3</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="11">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0.85942893002823995</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0.19638067253299801</v>
+      </c>
+      <c r="O17" s="11">
+        <v>-4.7793405391247899E-2</v>
       </c>
       <c r="P17" s="11">
+        <v>0.10586529215015</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0.13093243153630699</v>
+      </c>
+      <c r="R17" s="11">
+        <v>2.3958966044444401E-2</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0.17737990555555599</v>
+      </c>
+      <c r="T17" s="11">
+        <v>2.4608611983333299E-2</v>
+      </c>
+      <c r="U17" s="11">
+        <v>1.7126445916666701E-2</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0.75692622222222194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.24179999999999999</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.1182</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9.9700000000000006E-4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18">
+        <v>3.0870400000000001E-3</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" s="11">
         <v>25</v>
       </c>
-      <c r="Q17" s="11">
-        <v>0.88593939393939403</v>
-      </c>
-      <c r="R17" s="11">
-        <v>8.7000415567082198E-2</v>
-      </c>
-      <c r="S17" s="11">
-        <v>-3.1904679259302498E-3</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="V17" s="11">
+      <c r="L18" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0.91496705365547504</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0.236283997489802</v>
+      </c>
+      <c r="O18" s="11">
+        <v>-4.9081247125792903E-4</v>
+      </c>
+      <c r="P18" s="11">
+        <v>8.4904868090642904E-2</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>3.2602431137827598E-2</v>
+      </c>
+      <c r="R18" s="11">
+        <v>5.5940892123999997E-2</v>
+      </c>
+      <c r="S18" s="11">
+        <v>0.70736856000000004</v>
+      </c>
+      <c r="T18" s="11">
+        <v>3.2786148091999999E-2</v>
+      </c>
+      <c r="U18" s="11">
+        <v>4.7370258691999997E-2</v>
+      </c>
+      <c r="V18" s="11">
+        <v>0.15653410800000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.24279999999999999</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.139E-3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19">
+        <v>2.9885889999999998E-3</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="11">
         <v>25</v>
       </c>
-      <c r="W17" s="11">
-        <v>0.884530906808911</v>
-      </c>
-      <c r="X17" s="11">
-        <v>0.17977216818324401</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>-3.5450162750013697E-2</v>
-      </c>
-      <c r="AB17" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>25</v>
-      </c>
-      <c r="AD17" s="11">
-        <v>0.88559312771863896</v>
-      </c>
-      <c r="AE17" s="11">
-        <v>8.5796173536361306E-2</v>
-      </c>
-      <c r="AF17" s="11">
-        <v>8.1357544711223601E-3</v>
-      </c>
-      <c r="AJ17" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK17" s="11">
-        <v>0.12994577012588901</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN17">
-        <v>0.1739</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>187</v>
-      </c>
-      <c r="AQ17">
-        <v>0.12994577012588901</v>
-      </c>
-      <c r="AR17">
-        <v>0.188364735975976</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18">
-        <v>0.20330000000000001</v>
-      </c>
-      <c r="C18">
-        <v>0.12520000000000001</v>
-      </c>
-      <c r="D18">
-        <v>7.9299999999999998E-4</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18">
-        <v>8.43E-2</v>
-      </c>
-      <c r="I18">
-        <v>0.19719999999999999</v>
-      </c>
-      <c r="K18" t="s">
-        <v>188</v>
-      </c>
-      <c r="L18">
-        <v>2.0999730000000002E-3</v>
-      </c>
-      <c r="M18">
-        <v>7.9299999999999998E-4</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="P18" s="11">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>0.88439393939393895</v>
-      </c>
-      <c r="R18" s="11">
-        <v>8.7746905227742297E-2</v>
-      </c>
-      <c r="S18" s="11">
-        <v>-3.6023702892615801E-3</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="V18" s="11">
-        <v>18</v>
-      </c>
-      <c r="W18" s="11">
-        <v>0.85942893002823995</v>
-      </c>
-      <c r="X18" s="11">
-        <v>0.19638067253299801</v>
-      </c>
-      <c r="Y18" s="11">
-        <v>-4.7793405391247899E-2</v>
-      </c>
-      <c r="AB18" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC18" s="11">
-        <v>18</v>
-      </c>
-      <c r="AD18" s="11">
-        <v>0.886336313362041</v>
-      </c>
-      <c r="AE18" s="11">
-        <v>8.6070613344716301E-2</v>
-      </c>
-      <c r="AF18" s="11">
-        <v>1.17164187496781E-2</v>
-      </c>
-      <c r="AJ18" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK18" s="11">
-        <v>0.10586529215015</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN18">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>188</v>
-      </c>
-      <c r="AQ18">
-        <v>0.10586529215015</v>
-      </c>
-      <c r="AR18">
-        <v>0.128008743803804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19">
-        <v>0.24179999999999999</v>
-      </c>
-      <c r="C19">
-        <v>0.1182</v>
-      </c>
-      <c r="D19">
-        <v>9.9700000000000006E-4</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="I19">
-        <v>0.15909999999999999</v>
-      </c>
-      <c r="K19" t="s">
-        <v>183</v>
-      </c>
-      <c r="L19">
-        <v>3.0870400000000001E-3</v>
-      </c>
-      <c r="M19">
-        <v>9.9700000000000006E-4</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>183</v>
+      <c r="L19" s="11">
+        <v>3187</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0.90021964229683105</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0.235332601192344</v>
+      </c>
+      <c r="O19" s="11">
+        <v>8.4906100625995497E-3</v>
       </c>
       <c r="P19" s="11">
-        <v>25</v>
+        <v>9.8507968966620799E-2</v>
       </c>
       <c r="Q19" s="11">
-        <v>0.91862121212121195</v>
+        <v>4.4465148276455299E-2</v>
       </c>
       <c r="R19" s="11">
-        <v>8.3056617992691303E-2</v>
+        <v>4.3435724475999998E-2</v>
       </c>
       <c r="S19" s="11">
-        <v>2.3064800656530399E-3</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>183</v>
+        <v>0.88838523999999996</v>
+      </c>
+      <c r="T19" s="11">
+        <v>3.98989224E-3</v>
+      </c>
+      <c r="U19" s="11">
+        <v>4.2561080831999998E-2</v>
       </c>
       <c r="V19" s="11">
-        <v>25</v>
-      </c>
-      <c r="W19" s="11">
-        <v>0.91496705365547504</v>
-      </c>
-      <c r="X19" s="11">
-        <v>0.236283997489802</v>
-      </c>
-      <c r="Y19" s="11">
-        <v>-4.9081247125792903E-4</v>
-      </c>
-      <c r="AB19" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC19" s="11">
-        <v>25</v>
-      </c>
-      <c r="AD19" s="11">
-        <v>0.91615117270322899</v>
-      </c>
-      <c r="AE19" s="11">
-        <v>8.0504226738716697E-2</v>
-      </c>
-      <c r="AF19" s="11">
-        <v>1.06159253467805E-2</v>
-      </c>
-      <c r="AJ19" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK19" s="11">
-        <v>8.4904868090642904E-2</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN19">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ19">
-        <v>8.4904868090642904E-2</v>
-      </c>
-      <c r="AR19">
-        <v>3.0732509878878898E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20">
-        <v>0.24279999999999999</v>
-      </c>
-      <c r="C20">
-        <v>0.125</v>
-      </c>
-      <c r="D20">
-        <v>1.139E-3</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20">
-        <v>7.7899999999999997E-2</v>
-      </c>
-      <c r="I20">
-        <v>0.161</v>
-      </c>
-      <c r="K20" t="s">
-        <v>182</v>
-      </c>
-      <c r="L20">
-        <v>2.9885889999999998E-3</v>
-      </c>
-      <c r="M20">
-        <v>1.139E-3</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P20" s="11">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>0.92521212121212104</v>
-      </c>
-      <c r="R20" s="11">
-        <v>7.8852807932561095E-2</v>
-      </c>
-      <c r="S20" s="11">
-        <v>1.0355111128310401E-2</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="V20" s="11">
-        <v>25</v>
-      </c>
-      <c r="W20" s="11">
-        <v>0.90021964229683105</v>
-      </c>
-      <c r="X20" s="11">
-        <v>0.235332601192344</v>
-      </c>
-      <c r="Y20" s="11">
-        <v>8.4906100625995497E-3</v>
-      </c>
-      <c r="AB20" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC20" s="11">
-        <v>25</v>
-      </c>
-      <c r="AD20" s="11">
-        <v>0.92450108199086301</v>
-      </c>
-      <c r="AE20" s="11">
-        <v>7.5926725288186003E-2</v>
-      </c>
-      <c r="AF20" s="11">
-        <v>1.59707780269236E-2</v>
-      </c>
-      <c r="AJ20" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK20" s="11">
-        <v>9.8507968966620799E-2</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN20">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ20">
-        <v>9.8507968966620799E-2</v>
-      </c>
-      <c r="AR20">
-        <v>4.13867915655656E-2</v>
+        <v>2.1628058687999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <f>PEARSON(D2:D19,Q2:Q19)</f>
+        <v>0.99663836421295737</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AP3:AR20">
-    <sortCondition ref="AP3:AP20"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F09F61-ED05-4A4F-858E-6B28365BD225}">
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1">
+        <f>PEARSON(O2:O16,P2:P16)</f>
+        <v>7.2644818527548959E-3</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="2">
+        <v>36.85</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-4.88</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.1042</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.1103</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.54790000000000005</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.7199999999999999E-4</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" s="11">
+        <v>24</v>
+      </c>
+      <c r="K2" s="11">
+        <v>14053</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.95701985341208295</v>
+      </c>
+      <c r="M2" s="11">
+        <v>6.6253355249053097E-2</v>
+      </c>
+      <c r="N2" s="11">
+        <v>1.1017274780239499E-3</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0.23859781029360799</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0.51357712411882395</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>2.4238272791666699E-2</v>
+      </c>
+      <c r="R2" s="11">
+        <v>6.0368603416666701E-2</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0.90483904166666695</v>
+      </c>
+      <c r="T2" s="11">
+        <v>1.05540075E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="2">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-0.39</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.1016</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.4844</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3.5799999999999997E-4</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" s="11">
+        <v>24</v>
+      </c>
+      <c r="K3" s="11">
+        <v>14053</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.94449583718778896</v>
+      </c>
+      <c r="M3" s="11">
+        <v>6.3539191601799605E-2</v>
+      </c>
+      <c r="N3" s="11">
+        <v>-4.1311392819393097E-2</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.19978307606551901</v>
+      </c>
+      <c r="P3" s="11">
+        <v>0.45209768595719102</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>1.3950724583333301E-3</v>
+      </c>
+      <c r="R3" s="11">
+        <v>2.1070471875E-2</v>
+      </c>
+      <c r="S3" s="11">
+        <v>0.97332970833333299</v>
+      </c>
+      <c r="T3" s="11">
+        <v>4.2047074583333299E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="2">
+        <v>39.15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.0899999999999998E-4</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="11">
+        <v>23</v>
+      </c>
+      <c r="K4" s="11">
+        <v>14053</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.94776915961004804</v>
+      </c>
+      <c r="M4" s="11">
+        <v>5.8440854835251202E-2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>6.4760569998919496E-3</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0.21819400968526001</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0.52632872269053799</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>2.71452808695652E-3</v>
+      </c>
+      <c r="R4" s="11">
+        <v>4.7426472173912999E-2</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0.94558913043478299</v>
+      </c>
+      <c r="T4" s="11">
+        <v>4.26991213043478E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="2">
+        <v>39.94</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-2.19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.1061</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.1057</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.4365</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.4099999999999999E-4</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="11">
+        <v>23</v>
+      </c>
+      <c r="K5" s="11">
+        <v>14053</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.93225645769586596</v>
+      </c>
+      <c r="M5" s="11">
+        <v>6.6056741937811095E-2</v>
+      </c>
+      <c r="N5" s="11">
+        <v>-4.0350867786738603E-2</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.19222751675848801</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0.42565845156231202</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>1.32728713913043E-2</v>
+      </c>
+      <c r="R5" s="11">
+        <v>6.0262388608695601E-2</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0.89427213043478304</v>
+      </c>
+      <c r="T5" s="11">
+        <v>3.2192592913043501E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="2">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-0.12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.47810000000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.1700000000000001E-4</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="11">
+        <v>24</v>
+      </c>
+      <c r="K6" s="11">
+        <v>14053</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.93410659645627303</v>
+      </c>
+      <c r="M6" s="11">
+        <v>5.9185197368421101E-2</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1.6606239935116202E-2</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0.212551747353079</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0.47547645029605901</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>8.1737922500000008E-3</v>
+      </c>
+      <c r="R6" s="11">
+        <v>4.2977618333333301E-2</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0.93685525000000003</v>
+      </c>
+      <c r="T6" s="11">
+        <v>1.1993358833333301E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="2">
+        <v>41.97</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-0.88</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.28E-4</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J7" s="11">
+        <v>24</v>
+      </c>
+      <c r="K7" s="11">
+        <v>14053</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.93609905358286505</v>
+      </c>
+      <c r="M7" s="11">
+        <v>5.7471901594793699E-2</v>
+      </c>
+      <c r="N7" s="11">
+        <v>-3.7061027012141201E-2</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.223293802302825</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0.48023295895979201</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>7.9990504166666703E-4</v>
+      </c>
+      <c r="R7" s="11">
+        <v>1.249791575E-2</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0.98377879166666704</v>
+      </c>
+      <c r="T7" s="11">
+        <v>2.9233872499999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="2">
+        <v>41.74</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16.13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.2392</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.13969999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.18290000000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5.9900000000000003E-4</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="11">
+        <v>22</v>
+      </c>
+      <c r="K8" s="11">
+        <v>14053</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.86188002561730603</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0.14449974807350299</v>
+      </c>
+      <c r="N8" s="11">
+        <v>1.6068743353155699E-2</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0.30822979783141602</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0.2031296645009</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0.78099540909090903</v>
+      </c>
+      <c r="R8" s="11">
+        <v>4.83749626818182E-2</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0.153231130181818</v>
+      </c>
+      <c r="T8" s="11">
+        <v>1.7398464454545501E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="2">
+        <v>40.39</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16.86</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.26910000000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.5699999999999997E-4</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" s="11">
+        <v>21</v>
+      </c>
+      <c r="K9" s="11">
+        <v>14053</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.89810004981142799</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0.15643943994843501</v>
+      </c>
+      <c r="N9" s="11">
+        <v>7.5933158054900503E-3</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0.224343205078848</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0.114399497729546</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0.154831709095238</v>
+      </c>
+      <c r="R9" s="11">
+        <v>9.6660257142857101E-2</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0.23692834761904799</v>
+      </c>
+      <c r="T9" s="11">
+        <v>0.51157971428571403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="2">
+        <v>40.49</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16.97</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.3175</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.1129</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9.8900000000000008E-4</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J10" s="11">
+        <v>25</v>
+      </c>
+      <c r="K10" s="11">
+        <v>14053</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.930406318935459</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0.18309153763824501</v>
+      </c>
+      <c r="N10" s="11">
+        <v>-8.4477932275373001E-3</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0.22221141241432699</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0.142022709345869</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>9.3400338520000001E-2</v>
+      </c>
+      <c r="R10" s="11">
+        <v>2.6428026760000001E-2</v>
+      </c>
+      <c r="S10" s="11">
+        <v>3.8011696120000001E-2</v>
+      </c>
+      <c r="T10" s="11">
+        <v>0.84215996000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42.57</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12.77</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.12889999999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.51819999999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2.61E-4</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J11" s="11">
+        <v>23</v>
+      </c>
+      <c r="K11" s="11">
+        <v>14053</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.93083327403401395</v>
+      </c>
+      <c r="M11" s="11">
+        <v>5.5083121270936702E-2</v>
+      </c>
+      <c r="N11" s="11">
+        <v>-7.2791558478716004E-2</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0.35003096735373401</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0.55579814192438504</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>8.3010635217391302E-3</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0.81633743478260901</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0.16137000608695701</v>
+      </c>
+      <c r="T11" s="11">
+        <v>1.39914916086957E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42.43</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12.45</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.1033</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.46729999999999999</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="J12" s="11">
+        <v>25</v>
+      </c>
+      <c r="K12" s="11">
+        <v>14053</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.92058635166868297</v>
+      </c>
+      <c r="M12" s="11">
+        <v>6.4535552701063301E-2</v>
+      </c>
+      <c r="N12" s="11">
+        <v>-5.2693791721867701E-2</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0.32115854936030502</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0.46560231180636102</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>7.0942957200000002E-3</v>
+      </c>
+      <c r="R12" s="11">
+        <v>0.92878523999999996</v>
+      </c>
+      <c r="S12" s="11">
+        <v>6.0002209719999998E-2</v>
+      </c>
+      <c r="T12" s="11">
+        <v>4.1181850799999996E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="2">
+        <v>41.93</v>
+      </c>
+      <c r="C13" s="2">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.15540000000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6.1600000000000001E-4</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J13" s="11">
+        <v>24</v>
+      </c>
+      <c r="K13" s="11">
+        <v>14053</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0.87312317654593297</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0.14516457757526</v>
+      </c>
+      <c r="N13" s="11">
+        <v>4.3049451643431297E-2</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0.31214728833132199</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0.20878138673534699</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0.76154529166666696</v>
+      </c>
+      <c r="R13" s="11">
+        <v>6.8304922666666698E-2</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0.15987258174999999</v>
+      </c>
+      <c r="T13" s="11">
+        <v>1.0276999791666699E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44.32</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.42130000000000001</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.1599999999999999E-4</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" s="11">
+        <v>19</v>
+      </c>
+      <c r="K14" s="11">
+        <v>14053</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.86308973172988002</v>
+      </c>
+      <c r="M14" s="11">
+        <v>5.9014917872946798E-2</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0.114587118997083</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0.26914392191092201</v>
+      </c>
+      <c r="P14" s="11">
+        <v>0.42009036688137602</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>8.3655017999999998E-2</v>
+      </c>
+      <c r="R14" s="11">
+        <v>6.8621061105263198E-2</v>
+      </c>
+      <c r="S14" s="11">
+        <v>0.82053368421052597</v>
+      </c>
+      <c r="T14" s="11">
+        <v>2.71903403684211E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43.93</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.1242</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.33079999999999998</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.2853</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J15" s="11">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11">
+        <v>14053</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.87774852344695098</v>
+      </c>
+      <c r="M15" s="11">
+        <v>6.8810199097032093E-2</v>
+      </c>
+      <c r="N15" s="11">
+        <v>5.7444972016595403E-2</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0.22024088636542899</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0.356730394512903</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>6.3885275888888898E-2</v>
+      </c>
+      <c r="R15" s="11">
+        <v>9.77973433333333E-2</v>
+      </c>
+      <c r="S15" s="11">
+        <v>0.77969283333333295</v>
+      </c>
+      <c r="T15" s="11">
+        <v>5.8624523666666699E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="2">
+        <v>38.96</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.59</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.1109</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.15579999999999999</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" s="11">
+        <v>24</v>
+      </c>
+      <c r="K16" s="11">
+        <v>14053</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0.93396427809008797</v>
+      </c>
+      <c r="M16" s="11">
+        <v>7.0807469301751094E-2</v>
+      </c>
+      <c r="N16" s="11">
+        <v>1.8786943543637E-2</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0.27381728046440501</v>
+      </c>
+      <c r="P16" s="11">
+        <v>0.46647712118023599</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>2.7703104833333301E-2</v>
+      </c>
+      <c r="R16" s="11">
+        <v>0.243742875</v>
+      </c>
+      <c r="S16" s="11">
+        <v>0.63582095833333296</v>
+      </c>
+      <c r="T16" s="11">
+        <v>9.2733012500000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="O2:O16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B522B4B-0C5C-4F04-8C0E-0966E6939063}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -6758,25 +6957,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
         <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J1">
         <f>PEARSON(B2:B16,G2:G16)</f>
@@ -6785,13 +6984,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="B2">
         <v>5.3069090000000003E-3</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -6808,13 +7007,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="B3">
         <v>4.964179E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -6831,13 +7030,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B4">
         <v>4.1571830000000001E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="E4">
         <v>25</v>
@@ -6854,13 +7053,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B5">
         <v>4.6866240000000003E-3</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="E5">
         <v>21</v>
@@ -6877,13 +7076,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="B6">
         <v>4.2912200000000001E-3</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="E6">
         <v>18</v>
@@ -6900,13 +7099,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B7">
         <v>4.82695E-3</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -6923,13 +7122,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="B8">
         <v>4.9375419999999996E-3</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="E8">
         <v>25</v>
@@ -6946,13 +7145,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B9">
         <v>4.8495939999999996E-3</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="E9">
         <v>25</v>
@@ -6969,13 +7168,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="B10">
         <v>5.229788E-3</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="E10">
         <v>18</v>
@@ -6992,13 +7191,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="B11">
         <v>4.0323420000000004E-3</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E11">
         <v>13</v>
@@ -7015,13 +7214,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="B12">
         <v>4.3344229999999996E-3</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="E12">
         <v>25</v>
@@ -7038,13 +7237,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="B13">
         <v>3.6588910000000001E-3</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="E13">
         <v>25</v>
@@ -7061,13 +7260,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="B14">
         <v>3.9552909999999997E-3</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="E14">
         <v>25</v>
@@ -7084,13 +7283,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="B15">
         <v>4.3989820000000001E-3</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="E15">
         <v>23</v>
@@ -7107,13 +7306,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="B16">
         <v>4.0908719999999997E-3</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="E16">
         <v>25</v>
